--- a/01 - DATASET/02 - AUH Weather 1970-2024 [ORIGINAL].xlsx
+++ b/01 - DATASET/02 - AUH Weather 1970-2024 [ORIGINAL].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 ARTIFICIAL INTELLIGENCE\SA2-blomikii\01 - DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8442DF4-276D-42C5-9465-4BE47E7C9EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439EBBD1-1B1A-4706-8374-C42DCC0383EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070" xr2:uid="{22593D64-4D70-4623-BFD6-FA2482228C99}"/>
   </bookViews>
@@ -3552,7 +3552,7 @@
   <dimension ref="A1:AG487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
